--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2298822.047872591</v>
+        <v>2294517.708062723</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>215.0845781150035</v>
       </c>
       <c r="G2" t="n">
-        <v>225.403139763615</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>138.311282411146</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>108.1361188199493</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>154.4278794072376</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>168.7231303138303</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>104.1383913127195</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>28.03180167961733</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>10.1845637256568</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.6734075218399</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>85.6137528415791</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>299.9118436558379</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>200.1811166776839</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>91.06264775161806</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115245</v>
+        <v>20.24979976115233</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1277,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>203.9965360389435</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.4305105925977</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.561464046687</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560523</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>7.613741235231972</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>164.5662136960142</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427902</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.043911798777185</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>98.2054987677615</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756229</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>216.7094028874707</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>5.623597659135302</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>108.516367906614</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>91.89996056624759</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695435</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>124.9362388746453</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>142.1343012721633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>634.1670622275113</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>634.1670622275113</v>
       </c>
       <c r="F2" t="n">
-        <v>515.1547061224652</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672985</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>900.5447187946894</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.8054764719852</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="C3" t="n">
-        <v>160.8054764719852</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>160.8054764719852</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
         <v>21.0971104001205</v>
@@ -4412,49 +4412,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374624</v>
+        <v>778.6549349682211</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374624</v>
+        <v>778.6549349682211</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057196</v>
+        <v>778.6549349682211</v>
       </c>
       <c r="W3" t="n">
-        <v>368.656976677518</v>
+        <v>524.4175782400196</v>
       </c>
       <c r="X3" t="n">
-        <v>160.8054764719852</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.8054764719852</v>
+        <v>316.5660780344868</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.598167514283</v>
+        <v>481.9870716748508</v>
       </c>
       <c r="C4" t="n">
-        <v>294.598167514283</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4815281019473</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4815281019473</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="G4" t="n">
         <v>144.4815281019473</v>
@@ -4491,19 +4491,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>770.0752348637</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>770.0752348637</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>770.0752348637</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>515.3907466578131</v>
+        <v>884.4281156486206</v>
       </c>
       <c r="W4" t="n">
-        <v>515.3907466578131</v>
+        <v>884.4281156486206</v>
       </c>
       <c r="X4" t="n">
-        <v>515.3907466578131</v>
+        <v>884.4281156486206</v>
       </c>
       <c r="Y4" t="n">
-        <v>294.598167514283</v>
+        <v>663.6355365050905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>949.6652257507528</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>949.6652257507528</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333.343306015701</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>333.343306015701</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>333.343306015701</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>305.0283548241683</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
         <v>242.5255548298714</v>
@@ -4664,34 +4664,34 @@
         <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>709.4101432413019</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="W6" t="n">
-        <v>709.4101432413019</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="X6" t="n">
-        <v>501.558643035769</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>501.558643035769</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.4249761124504</v>
+        <v>337.9463869104205</v>
       </c>
       <c r="C7" t="n">
-        <v>347.4887931845435</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D7" t="n">
-        <v>347.4887931845435</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E7" t="n">
-        <v>347.4887931845435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>347.4887931845435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008668</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>926.0629918407075</v>
+        <v>968.3769817822077</v>
       </c>
       <c r="W7" t="n">
-        <v>926.0629918407075</v>
+        <v>968.3769817822077</v>
       </c>
       <c r="X7" t="n">
-        <v>698.0734409426901</v>
+        <v>740.3874308841904</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.0734409426901</v>
+        <v>519.5948517406603</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.69163460304</v>
+        <v>1099.992045689168</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.69163460304</v>
+        <v>731.0295287487565</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.69163460304</v>
+        <v>372.763830142006</v>
       </c>
       <c r="E8" t="n">
-        <v>877.903382004796</v>
+        <v>69.82257392398799</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151884</v>
+        <v>62.87707317478451</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467164</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760741</v>
+        <v>442.1757437607432</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045911</v>
+        <v>795.186282904594</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209581</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550201</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266116</v>
+        <v>2540.564622661167</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="U8" t="n">
-        <v>2358.359612183503</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="V8" t="n">
-        <v>2027.296724839932</v>
+        <v>2229.499872999216</v>
       </c>
       <c r="W8" t="n">
-        <v>2027.296724839932</v>
+        <v>1876.731217729102</v>
       </c>
       <c r="X8" t="n">
-        <v>1653.830966578852</v>
+        <v>1876.731217729102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1263.69163460304</v>
+        <v>1486.59188575329</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010814</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199544</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587031</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532476</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801326</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763208</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637185</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>519.8838657942224</v>
+        <v>506.4581980381367</v>
       </c>
       <c r="L9" t="n">
-        <v>814.4198492277033</v>
+        <v>800.9941814716183</v>
       </c>
       <c r="M9" t="n">
-        <v>1177.486317702004</v>
+        <v>1164.06064994592</v>
       </c>
       <c r="N9" t="n">
-        <v>1564.570720174573</v>
+        <v>1551.14505241849</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359411</v>
+        <v>1883.031862405879</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789035</v>
+        <v>2445.345361789041</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251695</v>
+        <v>2424.826280251702</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685344</v>
+        <v>2230.816477685351</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751573</v>
+        <v>2002.72632175158</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351983</v>
+        <v>1767.574213519838</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791629</v>
+        <v>1513.336856791636</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586103</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821149</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.8709697833057</v>
+        <v>833.0542434877111</v>
       </c>
       <c r="C10" t="n">
-        <v>623.9347868553988</v>
+        <v>664.1180605598042</v>
       </c>
       <c r="D10" t="n">
-        <v>473.818147443063</v>
+        <v>514.0014211474685</v>
       </c>
       <c r="E10" t="n">
-        <v>473.818147443063</v>
+        <v>366.0883275650754</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>219.198380067165</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380128</v>
+        <v>76.63468308380163</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676563</v>
+        <v>248.250021567657</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368913</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904025</v>
+        <v>823.865389990404</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.314084272717</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.673831494551</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="T10" t="n">
-        <v>1336.673831494551</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="U10" t="n">
-        <v>1047.555457989193</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="V10" t="n">
-        <v>792.8709697833057</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="W10" t="n">
-        <v>792.8709697833057</v>
+        <v>1463.484838359498</v>
       </c>
       <c r="X10" t="n">
-        <v>792.8709697833057</v>
+        <v>1235.495287461481</v>
       </c>
       <c r="Y10" t="n">
-        <v>792.8709697833057</v>
+        <v>1014.702708317951</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,22 +5056,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.155899672379</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>734.6461798836004</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>565.7099969556936</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>415.5933575433578</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>415.5933575433578</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>268.7034100454474</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>101.5073107603274</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2030.834046804724</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1741.758820148922</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1487.074331943035</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1197.657161906075</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>969.6676110080573</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,28 +5293,28 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400685</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270415</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R16" t="n">
-        <v>2445.908627217859</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.053792872764</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.452327895704</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.377101239902</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.692613034015</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.275442997055</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X16" t="n">
-        <v>982.2858920990371</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703082</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192804</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111734</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,13 +5542,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>983.3556038098228</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032921</v>
+        <v>814.4194208819159</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909563</v>
+        <v>664.3027814695802</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085632</v>
+        <v>516.3896878871871</v>
       </c>
       <c r="F19" t="n">
-        <v>334.7259677085632</v>
+        <v>369.4997403892767</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041566</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5761,19 +5761,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2490.32382148308</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2490.32382148308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3087.702309109632</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664238</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6305,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1138.603793935964</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3809.631423131744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3809.631423131744</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4361.541153371031</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3012.408157764291</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>2843.471974836385</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2843.471974836385</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>3932.255922673039</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>3642.838752636078</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>3414.849201738061</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3194.056622594531</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6940,16 +6940,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2808.971891347485</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3406.350378974037</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>481.447947124485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>186.6449060441816</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>186.6449060441816</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7201,13 +7201,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7262,19 +7262,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2859.514999370921</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>2859.514999370921</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>2709.398359958586</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>3261.956043344691</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>3041.163464201161</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127244</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446527</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127267</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0384964438434</v>
+        <v>210.4772158821397</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>304.9014880782314</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348521</v>
+        <v>20.98618304348501</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.521272659185342e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109919</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>52.83923663127405</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194487</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.3313349113445</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>67.31863952450735</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>32.89260457060099</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6960474398175336</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>220.0860577299019</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>37.91759473995518</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>48.3947522799763</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>100.7734165143918</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816905.7031302032</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982119</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580778</v>
+        <v>390680.0076580797</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606944</v>
+        <v>507909.232060692</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911419</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910174</v>
+        <v>95270.23779101777</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.9756954688</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555027</v>
+        <v>139261.6527555022</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26447,13 +26447,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92902.86757567903</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-377687.1223721093</v>
       </c>
       <c r="C6" t="n">
-        <v>302400.858219084</v>
+        <v>302400.8582190841</v>
       </c>
       <c r="D6" t="n">
-        <v>-7063.20059104744</v>
+        <v>-7063.200591048633</v>
       </c>
       <c r="E6" t="n">
-        <v>-14228.90040387856</v>
+        <v>-14576.27965823266</v>
       </c>
       <c r="F6" t="n">
-        <v>493680.3316568159</v>
+        <v>493332.9524024593</v>
       </c>
       <c r="G6" t="n">
-        <v>493680.331656816</v>
+        <v>493332.9524024589</v>
       </c>
       <c r="H6" t="n">
-        <v>493680.331656816</v>
+        <v>493332.9524024584</v>
       </c>
       <c r="I6" t="n">
-        <v>493680.331656816</v>
+        <v>493332.9524024588</v>
       </c>
       <c r="J6" t="n">
-        <v>424681.1772377019</v>
+        <v>424333.7979833449</v>
       </c>
       <c r="K6" t="n">
-        <v>493680.3316568161</v>
+        <v>493332.9524024592</v>
       </c>
       <c r="L6" t="n">
-        <v>398410.0938657986</v>
+        <v>398062.7146114409</v>
       </c>
       <c r="M6" t="n">
-        <v>360962.3559613467</v>
+        <v>360614.97670699</v>
       </c>
       <c r="N6" t="n">
-        <v>493680.331656816</v>
+        <v>493332.9524024587</v>
       </c>
       <c r="O6" t="n">
-        <v>493680.331656816</v>
+        <v>493332.9524024592</v>
       </c>
       <c r="P6" t="n">
-        <v>493680.3316568158</v>
+        <v>493332.9524024592</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26743,16 +26743,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627819</v>
+        <v>933.7024595627835</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856948</v>
+        <v>640.1406900856966</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933035</v>
+        <v>319.6474457933051</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788919</v>
+        <v>434.2730407788898</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>191.7914676267079</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>187.431034882095</v>
-      </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,13 +27463,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>19.33379804425493</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>86.70486876492744</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>50.29128483635611</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27596,7 +27596,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>83.41451300999768</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>142.1140765027779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>265.5927093657496</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,19 +27697,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>129.6132787757836</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120974</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>222.6160234237685</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.21025951670669</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,7 +27833,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>166.5238904822489</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>82.01852641642392</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465051</v>
+        <v>65.76608425465025</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>50.86425001200178</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164526994</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.776449164533972</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1564485714977337</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.961534289904</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.274919480332254e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-6.157256803965665e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.405441942519623e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.566747394273988e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885559</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546667</v>
+        <v>38.44132789546674</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972535</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763185</v>
+        <v>477.4691627763193</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354923</v>
+        <v>592.3427171354933</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359933</v>
+        <v>659.0954050359944</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525068</v>
+        <v>669.760257752508</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307886</v>
+        <v>632.4356192307897</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983015</v>
+        <v>539.7691690983024</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542125</v>
+        <v>405.3441667542132</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140461</v>
+        <v>85.53465245140475</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026263</v>
+        <v>69.14683309026275</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.303051450217</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571276</v>
+        <v>436.0654741571283</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617161</v>
+        <v>508.8678404617169</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152208</v>
+        <v>522.3360580152217</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519078</v>
+        <v>477.8354464519086</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947585</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366395</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133927</v>
+        <v>8.09502415413394</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415874</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490125</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023122</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708732</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307405</v>
+        <v>75.70643221307418</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.34274778658779</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942743</v>
+        <v>7.194100917942755</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650323</v>
+        <v>0.09183958618650338</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107755</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581384</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>689.7436082887214</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067253</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200318</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>314.3020503687028</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>399.1902208908123</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33025,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>466.5925882502517</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33499,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>233.3139244897918</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>303.4297552732313</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34795,7 +34795,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250135</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966408</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34874,7 +34874,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
         <v>6.56026382749684</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705672</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313379</v>
+        <v>257.3793117313388</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655051</v>
+        <v>356.5763021655061</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087206</v>
+        <v>428.7491718087217</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559159</v>
+        <v>440.3471941559171</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091018</v>
+        <v>402.337407809103</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343032</v>
+        <v>308.5361733430329</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879763</v>
+        <v>183.0384768797637</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234267</v>
+        <v>20.20013907234306</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127565</v>
+        <v>62.90656844127597</v>
       </c>
       <c r="K9" t="n">
-        <v>410.5001089197009</v>
+        <v>396.9388283579977</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772534</v>
+        <v>297.5110943772542</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396978</v>
+        <v>366.7338065396986</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318876</v>
+        <v>390.9943459318885</v>
       </c>
       <c r="O9" t="n">
-        <v>640.1406900856948</v>
+        <v>335.2392020074642</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804283</v>
+        <v>567.9934337203661</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.3812106603488</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873303</v>
+        <v>25.68023017873323</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228567</v>
+        <v>54.82702814228593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>228.3679864663311</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721169</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>547.609574366703</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306623</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319374</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366985</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>171.7058059242583</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>261.3487819164533</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>332.6181808359215</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>94.75954470991759</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>160.8335108287869</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2294517.708062723</v>
+        <v>2296278.238365509</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9503802.670313932</v>
+        <v>9503802.670313934</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>104.1383913127193</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>215.0845781150035</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>108.1361188199493</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>173.4063010743179</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>168.7231303138303</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>140.8229632882361</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>237.9688518868387</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>104.1383913127195</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.18456372565624</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>10.1845637256568</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.80705339932023</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>85.6137528415791</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>299.9118436558379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>280.9438239338196</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288546</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775161806</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>23.91773138701054</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>170.561464046687</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576191</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881259</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>7.613741235231972</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892427902</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.0572044082511</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520857</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663478</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756229</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.7907648167922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695435</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>42.5313457611372</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385613039</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>900.5447187946894</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="D2" t="n">
-        <v>634.1670622275113</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="E2" t="n">
-        <v>634.1670622275113</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="F2" t="n">
-        <v>416.9099126163966</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429522</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5660780344868</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C3" t="n">
-        <v>316.5660780344868</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>694.2029851278862</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>864.141532454616</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>981.1991324880196</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166548</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>778.6549349682211</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>778.6549349682211</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>778.6549349682211</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>524.4175782400196</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>316.5660780344868</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y3" t="n">
-        <v>316.5660780344868</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.9870716748508</v>
+        <v>505.4926014709343</v>
       </c>
       <c r="C4" t="n">
-        <v>313.0508887469439</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="D4" t="n">
-        <v>313.0508887469439</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="E4" t="n">
-        <v>313.0508887469439</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0508887469439</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="V4" t="n">
-        <v>884.4281156486206</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="W4" t="n">
-        <v>884.4281156486206</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="X4" t="n">
-        <v>884.4281156486206</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.6355365050905</v>
+        <v>687.1410663011741</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>683.2875691835748</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="C5" t="n">
-        <v>683.2875691835748</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="D5" t="n">
-        <v>683.2875691835748</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="E5" t="n">
-        <v>416.9099126163967</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>261.4696880635939</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="X5" t="n">
-        <v>949.6652257507528</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="Y5" t="n">
-        <v>949.6652257507528</v>
+        <v>534.7928453799753</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>660.5440004277928</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>486.0909711466658</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>337.1565614854145</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>177.919106479959</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>828.7593374478608</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.9463869104205</v>
+        <v>390.5330160718806</v>
       </c>
       <c r="C7" t="n">
-        <v>169.0102039825136</v>
+        <v>221.5968331439737</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>71.480193731638</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>71.480193731638</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>968.3769817822077</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>968.3769817822077</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X7" t="n">
-        <v>740.3874308841904</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.5948517406603</v>
+        <v>572.1814809021204</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1099.992045689168</v>
+        <v>2229.499872999213</v>
       </c>
       <c r="C8" t="n">
-        <v>731.0295287487565</v>
+        <v>1860.537356058802</v>
       </c>
       <c r="D8" t="n">
-        <v>372.763830142006</v>
+        <v>1502.271657452051</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398799</v>
+        <v>1116.483404853807</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478451</v>
+        <v>705.4975000641996</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685573</v>
+        <v>421.715859727008</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685573</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607432</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904594</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661167</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999216</v>
+        <v>2229.499872999213</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729102</v>
+        <v>2229.499872999213</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.731217729102</v>
+        <v>2229.499872999213</v>
       </c>
       <c r="Y8" t="n">
-        <v>1486.59188575329</v>
+        <v>2229.499872999213</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010814</v>
+        <v>929.5097208010791</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199544</v>
+        <v>755.0566915199521</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587031</v>
+        <v>606.1222818587008</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532476</v>
+        <v>446.8848268532453</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801326</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763208</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637189</v>
+        <v>113.4887579637188</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381367</v>
+        <v>559.9063389572709</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716183</v>
+        <v>854.4423223907523</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.06064994592</v>
+        <v>1217.508790865054</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.14505241849</v>
+        <v>1604.593193337623</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405879</v>
+        <v>1936.480003325013</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789041</v>
+        <v>2445.345361789039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251702</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685351</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175158</v>
+        <v>2002.726321751578</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519838</v>
+        <v>1767.574213519835</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791636</v>
+        <v>1513.336856791634</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586103</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821149</v>
+        <v>1097.725057821147</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0542434877111</v>
+        <v>689.2264432607458</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1180605598042</v>
+        <v>520.2902603328389</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474685</v>
+        <v>370.1736209205031</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650754</v>
+        <v>222.26052733811</v>
       </c>
       <c r="F10" t="n">
-        <v>219.198380067165</v>
+        <v>75.37057984019967</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380163</v>
+        <v>76.63468308380155</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368922</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990404</v>
+        <v>823.8653899904037</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477364</v>
+        <v>1381.084657271476</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.484838359498</v>
+        <v>1091.667487234516</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.495287461481</v>
+        <v>1091.667487234516</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.702708317951</v>
+        <v>870.8749080909855</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589157</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836004</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556936</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5933575433578</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>415.5933575433578</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>268.7034100454474</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>101.5073107603274</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138402</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143763</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400685</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121616</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121616</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121616</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121616</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270415</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138384</v>
+        <v>1251.825401600081</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703082</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192804</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111734</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="18">
@@ -5582,28 +5582,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871871</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892767</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041566</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797186</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
@@ -5992,19 +5992,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1028.490320362745</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>859.5541374348384</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>709.4374980225026</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>561.5244044401095</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>414.6344569421991</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>247.4383576570791</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>105.7265264992771</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782999</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038385</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797786</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7730,16 +7730,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544048</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>45.78351343583188</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446527</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127267</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821397</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>264.474747509497</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348501</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.521272659185342e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>132.6809716109919</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194487</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>45.65245098078603</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H19" t="n">
-        <v>32.89260457060099</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>69.47507150177333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711579</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302035</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982122</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982123</v>
-      </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675046</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.949767504</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580797</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060692</v>
+        <v>507909.2320606927</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.311823575820921e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911419</v>
+        <v>68999.1544191142</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101777</v>
+        <v>95270.23779101772</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555022</v>
+        <v>139261.6527555023</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678136</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678136</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678133</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678125</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26447,13 +26447,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567903</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377687.1223721093</v>
+        <v>-377687.1223721088</v>
       </c>
       <c r="C6" t="n">
-        <v>302400.8582190841</v>
+        <v>302400.858219084</v>
       </c>
       <c r="D6" t="n">
-        <v>-7063.200591048633</v>
+        <v>-7063.20059104856</v>
       </c>
       <c r="E6" t="n">
-        <v>-14576.27965823266</v>
+        <v>-14263.63832931219</v>
       </c>
       <c r="F6" t="n">
-        <v>493332.9524024593</v>
+        <v>493645.5937313805</v>
       </c>
       <c r="G6" t="n">
-        <v>493332.9524024589</v>
+        <v>493645.5937313804</v>
       </c>
       <c r="H6" t="n">
-        <v>493332.9524024584</v>
+        <v>493645.59373138</v>
       </c>
       <c r="I6" t="n">
-        <v>493332.9524024588</v>
+        <v>493645.59373138</v>
       </c>
       <c r="J6" t="n">
-        <v>424333.7979833449</v>
+        <v>424646.4393122664</v>
       </c>
       <c r="K6" t="n">
-        <v>493332.9524024592</v>
+        <v>493645.59373138</v>
       </c>
       <c r="L6" t="n">
-        <v>398062.7146114409</v>
+        <v>398375.3559403626</v>
       </c>
       <c r="M6" t="n">
-        <v>360614.97670699</v>
+        <v>360927.6180359112</v>
       </c>
       <c r="N6" t="n">
-        <v>493332.9524024587</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="O6" t="n">
-        <v>493332.9524024592</v>
+        <v>493645.5937313803</v>
       </c>
       <c r="P6" t="n">
-        <v>493332.9524024592</v>
+        <v>493645.5937313801</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627835</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856966</v>
+        <v>640.1406900856961</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933051</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788898</v>
+        <v>434.2730407788904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139521</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139515</v>
+        <v>532.5675980139521</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139521</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>261.1345004582882</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>191.7914676267079</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776173</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>86.70486876492744</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>32.36668412915958</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>83.41451300999768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>77.76169006385865</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.8653227588713</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>265.5927093657496</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>33.73724027584936</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>222.6160234237685</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>110.613994623611</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>166.5238904822489</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>82.01852641642392</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>130.6053358544299</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465025</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27943,13 +27943,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164529254</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164526994</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>142.3895222246956</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.961534289904</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.752375339137667e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.274919480332254e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-6.157256803965665e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>9.128711541473263e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.631790417779187e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.405441942519623e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28800,13 +28800,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,22 +28851,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.566747394273988e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-8.63709516081679e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885559</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546674</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354933</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359944</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307897</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983024</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542132</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
         <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152217</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
         <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490125</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
         <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
         <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942755</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31764,28 +31764,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>211.7351844430279</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107755</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31916,7 +31916,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31931,13 +31931,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31992,7 +31992,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067231</v>
@@ -32001,28 +32001,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32153,7 +32153,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
@@ -32168,13 +32168,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32229,37 +32229,37 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067253</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>444.22749159829</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200318</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32390,7 +32390,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
@@ -32405,13 +32405,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34143,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159448</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>74.40039143232826</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966408</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313388</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655061</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087217</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809103</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430329</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797637</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234306</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127597</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>396.9388283579977</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396986</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318885</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074642</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203661</v>
+        <v>514.0054125899258</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603488</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873323</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
         <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228593</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>73.18080466315369</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663311</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35585,7 +35585,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121332</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899073</v>
@@ -35822,7 +35822,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306623</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998983</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236319374</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>302.0934576762717</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366985</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899073</v>
@@ -36059,7 +36059,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998983</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193538</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295751</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
